--- a/matrice d'implication GL.xlsx
+++ b/matrice d'implication GL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0D2115-F2C1-E948-AD1C-5A6037F77DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{EA0D2115-F2C1-E948-AD1C-5A6037F77DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D74F5856-2722-46C5-ABAD-1EEE3C6CC291}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26680" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -790,21 +790,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" style="1" customWidth="1"/>
     <col min="4" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="s">
         <v>13</v>
       </c>
@@ -815,7 +815,7 @@
       <c r="G2" s="21"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="23"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -824,7 +824,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="2:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
@@ -839,7 +839,7 @@
       </c>
       <c r="H4" s="30"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
@@ -852,7 +852,7 @@
       <c r="G5" s="27"/>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -875,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>1</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <f>1+B7</f>
         <v>2</v>
@@ -898,7 +898,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <f t="shared" ref="B9:B34" si="0">1+B8</f>
         <v>3</v>
@@ -910,7 +910,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -922,7 +922,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -934,7 +934,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -946,7 +946,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -958,7 +958,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -970,7 +970,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -982,7 +982,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -994,7 +994,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1006,7 +1006,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1018,7 +1018,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1030,7 +1030,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1042,7 +1042,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1054,7 +1054,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1066,7 +1066,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1078,7 +1078,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1090,7 +1090,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1102,7 +1102,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1114,7 +1114,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1126,7 +1126,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1138,7 +1138,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1150,7 +1150,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1162,7 +1162,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1174,7 +1174,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1186,7 +1186,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1198,7 +1198,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1210,7 +1210,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="5"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11"/>
@@ -1219,7 +1219,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="19" t="s">
         <v>12</v>
       </c>
@@ -1230,27 +1230,27 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="16"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="16"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="16"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="16"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>

--- a/matrice d'implication GL.xlsx
+++ b/matrice d'implication GL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{EA0D2115-F2C1-E948-AD1C-5A6037F77DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D74F5856-2722-46C5-ABAD-1EEE3C6CC291}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D371C25-A65E-4555-B3FD-56477A559D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>projet :</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>MATRICE D'IMPLICATION : PROJET GL</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -790,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -879,7 +882,9 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>

--- a/matrice d'implication GL.xlsx
+++ b/matrice d'implication GL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D371C25-A65E-4555-B3FD-56477A559D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92079CF9-3877-4BD2-8D39-1E1E6C020FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>projet :</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>tâches</t>
   </si>
@@ -47,34 +44,100 @@
     <t>étudiants</t>
   </si>
   <si>
-    <t>nom 1</t>
-  </si>
-  <si>
-    <t>nom 2</t>
-  </si>
-  <si>
-    <t>nom 3</t>
-  </si>
-  <si>
-    <t>nom 4</t>
-  </si>
-  <si>
-    <t>nom 5</t>
-  </si>
-  <si>
-    <t>date:</t>
-  </si>
-  <si>
-    <t>version:</t>
-  </si>
-  <si>
     <t>REMARQUES:</t>
   </si>
   <si>
     <t>MATRICE D'IMPLICATION : PROJET GL</t>
   </si>
   <si>
-    <t>test</t>
+    <t>Diagramme de classe</t>
+  </si>
+  <si>
+    <t>projet : Genie Logiciel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">date : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>05/01/2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">version : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Création du SeedData</t>
+  </si>
+  <si>
+    <t>Création des Modèles</t>
+  </si>
+  <si>
+    <t>Creation du contexte et de la base de donnée</t>
+  </si>
+  <si>
+    <t>Crud Cinema</t>
+  </si>
+  <si>
+    <t>Crud Cinema API</t>
+  </si>
+  <si>
+    <t>Crud Film</t>
+  </si>
+  <si>
+    <t>Crud Film API</t>
+  </si>
+  <si>
+    <t>Crud Seance</t>
+  </si>
+  <si>
+    <t>Crud Seance API</t>
+  </si>
+  <si>
+    <t>Crud Salle</t>
+  </si>
+  <si>
+    <t>Test des curl GET</t>
+  </si>
+  <si>
+    <t>Test des curl PUT</t>
+  </si>
+  <si>
+    <t>Test des curl POST</t>
+  </si>
+  <si>
+    <t>Test des curl DELETE</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport</t>
+  </si>
+  <si>
+    <t>Diagramme Relationnel</t>
+  </si>
+  <si>
+    <t>Rebecca Grenet</t>
+  </si>
+  <si>
+    <t>Roche Eléa</t>
   </si>
 </sst>
 </file>
@@ -122,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -359,34 +422,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -406,11 +441,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,34 +504,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -469,46 +525,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H42"/>
+  <dimension ref="B1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -802,476 +885,472 @@
     <col min="1" max="1" width="9.1796875" style="1"/>
     <col min="2" max="2" width="9.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.81640625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="4" max="5" width="19" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="2:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="2:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="26" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>3</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <f>1+B7</f>
         <v>2</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <f t="shared" ref="B9:B34" si="0">1+B8</f>
         <v>3</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="35">
+        <v>1</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C14" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="35">
+        <v>1</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C16" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C17" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="36">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="36">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="35">
+        <v>0</v>
+      </c>
+      <c r="E19" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="35">
+        <v>1</v>
+      </c>
+      <c r="E20" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="35">
+        <v>1</v>
+      </c>
+      <c r="E21" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C22" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="35">
+        <v>0</v>
+      </c>
+      <c r="E22" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C24" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+    </row>
+    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="5"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="16"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="16"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="16"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="16"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="16"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="3"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="10"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="10"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="10"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="10"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="10"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:H3"/>
+  <mergeCells count="4">
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/matrice d'implication GL.xlsx
+++ b/matrice d'implication GL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92079CF9-3877-4BD2-8D39-1E1E6C020FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F8A1C0-E51D-45E8-9749-39B47009EA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -877,7 +877,7 @@
   <dimension ref="B1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/matrice d'implication GL.xlsx
+++ b/matrice d'implication GL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F8A1C0-E51D-45E8-9749-39B47009EA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF8B28-8077-4ACE-8009-FBFA1A0FDC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>libellé</t>
   </si>
   <si>
-    <t>étudiants</t>
-  </si>
-  <si>
     <t>REMARQUES:</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>Roche Eléa</t>
+  </si>
+  <si>
+    <t>étudiantes</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -531,6 +531,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,49 +585,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -876,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -891,40 +888,40 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="2:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="24"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
@@ -934,24 +931,24 @@
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="36">
-        <v>0.5</v>
+      <c r="C7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
@@ -959,13 +956,13 @@
         <f>1+B7</f>
         <v>2</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="35">
+      <c r="C8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="23">
         <v>0.5</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="24">
         <v>0.5</v>
       </c>
     </row>
@@ -974,13 +971,13 @@
         <f t="shared" ref="B9:B34" si="0">1+B8</f>
         <v>3</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="35">
+      <c r="C9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="23">
         <v>0.5</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="24">
         <v>0.5</v>
       </c>
     </row>
@@ -989,13 +986,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="35">
+      <c r="C10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="23">
         <v>0.5</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="24">
         <v>0.5</v>
       </c>
     </row>
@@ -1004,13 +1001,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="35">
+      <c r="C11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="23">
         <v>0.9</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="24">
         <v>0.1</v>
       </c>
     </row>
@@ -1019,13 +1016,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="35">
+      <c r="C12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="23">
         <v>0.9</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="24">
         <v>0.1</v>
       </c>
     </row>
@@ -1034,13 +1031,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="35">
+      <c r="C13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1049,13 +1046,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="35">
+      <c r="C14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1064,13 +1061,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="35">
+      <c r="C15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="23">
         <v>0.3</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="24">
         <v>0.7</v>
       </c>
     </row>
@@ -1079,13 +1076,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="35">
+      <c r="C16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="23">
         <v>0.3</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="24">
         <v>0.7</v>
       </c>
     </row>
@@ -1094,13 +1091,13 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="35">
+      <c r="C17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="23">
         <v>0.2</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="24">
         <v>0.8</v>
       </c>
     </row>
@@ -1109,13 +1106,13 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="35">
+      <c r="C18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="23">
         <v>0.2</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="24">
         <v>0.8</v>
       </c>
     </row>
@@ -1124,13 +1121,13 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="35">
+      <c r="C19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="23">
         <v>0</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1139,13 +1136,13 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="35">
+      <c r="C20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1154,13 +1151,13 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="35">
+      <c r="C21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="23">
         <v>1</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1169,13 +1166,13 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="35">
+      <c r="C22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="23">
         <v>0</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1184,13 +1181,13 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="35">
+      <c r="C23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="23">
         <v>0.5</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="24">
         <v>0.5</v>
       </c>
     </row>
@@ -1199,111 +1196,111 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
+      <c r="C24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="5"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1311,32 +1308,22 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="10"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="10"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="10"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="10"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="10"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/matrice d'implication GL.xlsx
+++ b/matrice d'implication GL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF8B28-8077-4ACE-8009-FBFA1A0FDC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890C0FC8-3369-4687-867F-C36EA30F6C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>tâches</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>étudiantes</t>
+  </si>
+  <si>
+    <t>Crud Salle API</t>
   </si>
 </sst>
 </file>
@@ -873,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1107,7 +1110,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D18" s="23">
         <v>0.2</v>
@@ -1125,10 +1128,10 @@
         <v>19</v>
       </c>
       <c r="D19" s="23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
@@ -1140,10 +1143,10 @@
         <v>20</v>
       </c>
       <c r="D20" s="23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
@@ -1155,10 +1158,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
@@ -1170,10 +1173,10 @@
         <v>22</v>
       </c>
       <c r="D22" s="23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
@@ -1199,8 +1202,12 @@
       <c r="C24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
+      <c r="D24" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
